--- a/Code/Results/Cases/Case_1_148/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_148/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.002796449493935</v>
+        <v>1.034032627396843</v>
       </c>
       <c r="D2">
-        <v>1.039276686849118</v>
+        <v>1.050137557194</v>
       </c>
       <c r="E2">
-        <v>1.008756698769935</v>
+        <v>1.03325751490764</v>
       </c>
       <c r="F2">
-        <v>1.03927423666346</v>
+        <v>1.056880251703592</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049256732267211</v>
+        <v>1.041844432251495</v>
       </c>
       <c r="J2">
-        <v>1.024893839739243</v>
+        <v>1.03915409329348</v>
       </c>
       <c r="K2">
-        <v>1.050214666439313</v>
+        <v>1.052892669778873</v>
       </c>
       <c r="L2">
-        <v>1.020095372134226</v>
+        <v>1.036060384185106</v>
       </c>
       <c r="M2">
-        <v>1.050212247242486</v>
+        <v>1.059616750037932</v>
       </c>
       <c r="N2">
-        <v>1.011904263693555</v>
+        <v>1.016967703781468</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.007595611202154</v>
+        <v>1.035045307499152</v>
       </c>
       <c r="D3">
-        <v>1.042262689608072</v>
+        <v>1.050784884138988</v>
       </c>
       <c r="E3">
-        <v>1.01261815632056</v>
+        <v>1.034120371259127</v>
       </c>
       <c r="F3">
-        <v>1.042967801753658</v>
+        <v>1.05770485926882</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050590211678275</v>
+        <v>1.042076579585753</v>
       </c>
       <c r="J3">
-        <v>1.027881332310295</v>
+        <v>1.039809415700384</v>
       </c>
       <c r="K3">
-        <v>1.052381927350777</v>
+        <v>1.05335280874068</v>
       </c>
       <c r="L3">
-        <v>1.023092091619562</v>
+        <v>1.036732039252741</v>
       </c>
       <c r="M3">
-        <v>1.053078906149036</v>
+        <v>1.060255056177638</v>
       </c>
       <c r="N3">
-        <v>1.012930621311647</v>
+        <v>1.017189528715414</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.010636312301231</v>
+        <v>1.035700982882555</v>
       </c>
       <c r="D4">
-        <v>1.044160166662072</v>
+        <v>1.051204120881953</v>
       </c>
       <c r="E4">
-        <v>1.015070762697651</v>
+        <v>1.03467939516345</v>
       </c>
       <c r="F4">
-        <v>1.045315651584853</v>
+        <v>1.058239140814536</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051427438802034</v>
+        <v>1.042225846176121</v>
       </c>
       <c r="J4">
-        <v>1.029771798645564</v>
+        <v>1.040233272995738</v>
       </c>
       <c r="K4">
-        <v>1.053753303390682</v>
+        <v>1.053650234361769</v>
       </c>
       <c r="L4">
-        <v>1.024990636982381</v>
+        <v>1.037166704129531</v>
       </c>
       <c r="M4">
-        <v>1.054896270426516</v>
+        <v>1.060668136078836</v>
       </c>
       <c r="N4">
-        <v>1.013579618576951</v>
+        <v>1.017332890643613</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.011899714644037</v>
+        <v>1.035976724930292</v>
       </c>
       <c r="D5">
-        <v>1.044949810216557</v>
+        <v>1.051380455799094</v>
       </c>
       <c r="E5">
-        <v>1.016091209819718</v>
+        <v>1.034914574917009</v>
       </c>
       <c r="F5">
-        <v>1.046292923947747</v>
+        <v>1.058463920115825</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051773421516698</v>
+        <v>1.042288370311837</v>
       </c>
       <c r="J5">
-        <v>1.030556671910691</v>
+        <v>1.040411418757214</v>
       </c>
       <c r="K5">
-        <v>1.054322612027047</v>
+        <v>1.053775195640299</v>
       </c>
       <c r="L5">
-        <v>1.025779400477586</v>
+        <v>1.037349450605512</v>
       </c>
       <c r="M5">
-        <v>1.055651565463948</v>
+        <v>1.060841806381314</v>
       </c>
       <c r="N5">
-        <v>1.013848945279701</v>
+        <v>1.01739311808976</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.012110987398877</v>
+        <v>1.03602302885489</v>
       </c>
       <c r="D6">
-        <v>1.045081929314172</v>
+        <v>1.051410068312346</v>
       </c>
       <c r="E6">
-        <v>1.016261935024876</v>
+        <v>1.034954072342889</v>
       </c>
       <c r="F6">
-        <v>1.046456448844451</v>
+        <v>1.058501671318447</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051831166549674</v>
+        <v>1.04229885503116</v>
       </c>
       <c r="J6">
-        <v>1.030687885559972</v>
+        <v>1.040441327622336</v>
       </c>
       <c r="K6">
-        <v>1.054417783840521</v>
+        <v>1.053796172675726</v>
       </c>
       <c r="L6">
-        <v>1.025911295964289</v>
+        <v>1.037380135303413</v>
       </c>
       <c r="M6">
-        <v>1.055777878687412</v>
+        <v>1.060870967029142</v>
       </c>
       <c r="N6">
-        <v>1.013893963556918</v>
+        <v>1.017403228075589</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.01065325178461</v>
+        <v>1.03570466698425</v>
       </c>
       <c r="D7">
-        <v>1.044170749256884</v>
+        <v>1.051206476734663</v>
       </c>
       <c r="E7">
-        <v>1.01508443922566</v>
+        <v>1.034682536995444</v>
       </c>
       <c r="F7">
-        <v>1.045328747893065</v>
+        <v>1.058242143670932</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051432085177739</v>
+        <v>1.042226682521406</v>
       </c>
       <c r="J7">
-        <v>1.029782324552802</v>
+        <v>1.040235653561306</v>
       </c>
       <c r="K7">
-        <v>1.053760938622834</v>
+        <v>1.053651904402183</v>
       </c>
       <c r="L7">
-        <v>1.025001212944783</v>
+        <v>1.037169145945377</v>
       </c>
       <c r="M7">
-        <v>1.054906396655141</v>
+        <v>1.060670456626203</v>
       </c>
       <c r="N7">
-        <v>1.013583230991661</v>
+        <v>1.017333695570792</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.00443209675472</v>
+        <v>1.034374783490435</v>
       </c>
       <c r="D8">
-        <v>1.04029314860885</v>
+        <v>1.050356246255315</v>
       </c>
       <c r="E8">
-        <v>1.010071463609759</v>
+        <v>1.033548976073644</v>
       </c>
       <c r="F8">
-        <v>1.04053141787675</v>
+        <v>1.057158784742038</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049712784062736</v>
+        <v>1.04192308355765</v>
       </c>
       <c r="J8">
-        <v>1.025912509855201</v>
+        <v>1.039375599428758</v>
       </c>
       <c r="K8">
-        <v>1.050953642242165</v>
+        <v>1.053048240512098</v>
       </c>
       <c r="L8">
-        <v>1.021116717078519</v>
+        <v>1.036287360436794</v>
       </c>
       <c r="M8">
-        <v>1.051188988530113</v>
+        <v>1.059832456853816</v>
       </c>
       <c r="N8">
-        <v>1.012254325268536</v>
+        <v>1.017042706305115</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.992946803775389</v>
+        <v>1.032034472955504</v>
       </c>
       <c r="D9">
-        <v>1.033183279032811</v>
+        <v>1.048860953340693</v>
       </c>
       <c r="E9">
-        <v>1.000867106265892</v>
+        <v>1.031556889445887</v>
       </c>
       <c r="F9">
-        <v>1.031739887477613</v>
+        <v>1.055255236534913</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046479923533343</v>
+        <v>1.041380864028673</v>
       </c>
       <c r="J9">
-        <v>1.018751110909285</v>
+        <v>1.03785872653807</v>
       </c>
       <c r="K9">
-        <v>1.045759982363014</v>
+        <v>1.051982140008962</v>
       </c>
       <c r="L9">
-        <v>1.013946130923861</v>
+        <v>1.034734029671576</v>
       </c>
       <c r="M9">
-        <v>1.044338172403453</v>
+        <v>1.058356254685054</v>
       </c>
       <c r="N9">
-        <v>1.009791580615595</v>
+        <v>1.016528631134032</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9848973511941578</v>
+        <v>1.030476388280104</v>
       </c>
       <c r="D10">
-        <v>1.028239986569134</v>
+        <v>1.047866144083286</v>
       </c>
       <c r="E10">
-        <v>0.9944540667377211</v>
+        <v>1.030232517674713</v>
       </c>
       <c r="F10">
-        <v>1.02562885636119</v>
+        <v>1.053989970696078</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044177618292605</v>
+        <v>1.041014547856889</v>
       </c>
       <c r="J10">
-        <v>1.013723258137028</v>
+        <v>1.036846613771114</v>
       </c>
       <c r="K10">
-        <v>1.042117416187749</v>
+        <v>1.051269875246339</v>
       </c>
       <c r="L10">
-        <v>1.008924181938297</v>
+        <v>1.033698850141701</v>
       </c>
       <c r="M10">
-        <v>1.03955029485068</v>
+        <v>1.057372501026573</v>
       </c>
       <c r="N10">
-        <v>1.008060595025143</v>
+        <v>1.016185050073697</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.98130871735268</v>
+        <v>1.029802229183667</v>
       </c>
       <c r="D11">
-        <v>1.026047122449433</v>
+        <v>1.04743588607127</v>
       </c>
       <c r="E11">
-        <v>0.9916048352813559</v>
+        <v>1.029659936709129</v>
       </c>
       <c r="F11">
-        <v>1.022917925720046</v>
+        <v>1.053443008630063</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043143282249203</v>
+        <v>1.04085478813083</v>
       </c>
       <c r="J11">
-        <v>1.011480292284841</v>
+        <v>1.036408161262942</v>
       </c>
       <c r="K11">
-        <v>1.040493995835706</v>
+        <v>1.050961106263925</v>
       </c>
       <c r="L11">
-        <v>1.006686827931617</v>
+        <v>1.033250704170541</v>
       </c>
       <c r="M11">
-        <v>1.037420209529515</v>
+        <v>1.056946630123111</v>
       </c>
       <c r="N11">
-        <v>1.007288021274207</v>
+        <v>1.016036074738601</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9799593117400979</v>
+        <v>1.029551892226153</v>
       </c>
       <c r="D12">
-        <v>1.025224346243356</v>
+        <v>1.047276145835595</v>
       </c>
       <c r="E12">
-        <v>0.9905350208915139</v>
+        <v>1.029447387924055</v>
       </c>
       <c r="F12">
-        <v>1.021900724028489</v>
+        <v>1.053239980230095</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042753227922635</v>
+        <v>1.040795275105305</v>
       </c>
       <c r="J12">
-        <v>1.010636731356591</v>
+        <v>1.036245270912303</v>
       </c>
       <c r="K12">
-        <v>1.03988373430362</v>
+        <v>1.050846363585916</v>
       </c>
       <c r="L12">
-        <v>1.005845829618578</v>
+        <v>1.03308425757935</v>
       </c>
       <c r="M12">
-        <v>1.036620034206378</v>
+        <v>1.056788459045907</v>
       </c>
       <c r="N12">
-        <v>1.006997415820478</v>
+        <v>1.015980708556679</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9802495228561444</v>
+        <v>1.029605586919888</v>
       </c>
       <c r="D13">
-        <v>1.025401214167202</v>
+        <v>1.047310407161637</v>
       </c>
       <c r="E13">
-        <v>0.9907650296885704</v>
+        <v>1.029492974313404</v>
       </c>
       <c r="F13">
-        <v>1.022119389154733</v>
+        <v>1.053283524257553</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042837164824061</v>
+        <v>1.040808048588413</v>
       </c>
       <c r="J13">
-        <v>1.010818158614782</v>
+        <v>1.03628021277327</v>
       </c>
       <c r="K13">
-        <v>1.04001497089481</v>
+        <v>1.050870978622787</v>
       </c>
       <c r="L13">
-        <v>1.006026685225951</v>
+        <v>1.033119960258035</v>
       </c>
       <c r="M13">
-        <v>1.036792087324196</v>
+        <v>1.056822386520677</v>
       </c>
       <c r="N13">
-        <v>1.007059919215085</v>
+        <v>1.01599258614819</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9811975157856559</v>
+        <v>1.029781534705382</v>
       </c>
       <c r="D14">
-        <v>1.025979282063507</v>
+        <v>1.047422680319369</v>
       </c>
       <c r="E14">
-        <v>0.9915166420475137</v>
+        <v>1.029642364635845</v>
       </c>
       <c r="F14">
-        <v>1.022834055465658</v>
+        <v>1.053426223422254</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043111161104248</v>
+        <v>1.040849872254177</v>
       </c>
       <c r="J14">
-        <v>1.011410779096707</v>
+        <v>1.036394697295242</v>
       </c>
       <c r="K14">
-        <v>1.04044370124333</v>
+        <v>1.050951622656018</v>
       </c>
       <c r="L14">
-        <v>1.0066175167001</v>
+        <v>1.033236945337821</v>
       </c>
       <c r="M14">
-        <v>1.037354252225952</v>
+        <v>1.056933555312433</v>
       </c>
       <c r="N14">
-        <v>1.007264074990248</v>
+        <v>1.016031498765164</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9817793998237022</v>
+        <v>1.029889951990959</v>
       </c>
       <c r="D15">
-        <v>1.026334343973352</v>
+        <v>1.047491865731405</v>
       </c>
       <c r="E15">
-        <v>0.9919781945039595</v>
+        <v>1.029734426633507</v>
       </c>
       <c r="F15">
-        <v>1.023273012240858</v>
+        <v>1.053514163373765</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043279196029071</v>
+        <v>1.040875618530482</v>
       </c>
       <c r="J15">
-        <v>1.011774514497528</v>
+        <v>1.036465231088707</v>
       </c>
       <c r="K15">
-        <v>1.040706885547485</v>
+        <v>1.051001303228668</v>
       </c>
       <c r="L15">
-        <v>1.006980213789824</v>
+        <v>1.033309025685866</v>
       </c>
       <c r="M15">
-        <v>1.037699419402233</v>
+        <v>1.057002052274211</v>
       </c>
       <c r="N15">
-        <v>1.007389374695171</v>
+        <v>1.016055470132235</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.98513326579316</v>
+        <v>1.030521140602222</v>
       </c>
       <c r="D16">
-        <v>1.028384384297791</v>
+        <v>1.047894709571893</v>
       </c>
       <c r="E16">
-        <v>0.9946415852263127</v>
+        <v>1.0302705366257</v>
       </c>
       <c r="F16">
-        <v>1.025807364115249</v>
+        <v>1.054026289990838</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044245455758818</v>
+        <v>1.041025126555803</v>
       </c>
       <c r="J16">
-        <v>1.013870684429351</v>
+        <v>1.036875708239023</v>
       </c>
       <c r="K16">
-        <v>1.042224158195392</v>
+        <v>1.051290359861411</v>
       </c>
       <c r="L16">
-        <v>1.009071301756305</v>
+        <v>1.03372859414678</v>
       </c>
       <c r="M16">
-        <v>1.03969042771325</v>
+        <v>1.057400766902552</v>
       </c>
       <c r="N16">
-        <v>1.008111368023536</v>
+        <v>1.016194932836663</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9872088032007471</v>
+        <v>1.030917203147376</v>
       </c>
       <c r="D17">
-        <v>1.029656035902981</v>
+        <v>1.048147538039735</v>
       </c>
       <c r="E17">
-        <v>0.9962924715407551</v>
+        <v>1.030607060737095</v>
       </c>
       <c r="F17">
-        <v>1.027379398468603</v>
+        <v>1.054347777206308</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044841386118911</v>
+        <v>1.041118603476365</v>
       </c>
       <c r="J17">
-        <v>1.015167560424013</v>
+        <v>1.037133136341855</v>
       </c>
       <c r="K17">
-        <v>1.043163327761504</v>
+        <v>1.051471583477286</v>
       </c>
       <c r="L17">
-        <v>1.010365820950795</v>
+        <v>1.033991803919686</v>
       </c>
       <c r="M17">
-        <v>1.040923814114165</v>
+        <v>1.057650897904951</v>
       </c>
       <c r="N17">
-        <v>1.00855796594269</v>
+        <v>1.01628236011829</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9884095410867751</v>
+        <v>1.03114826812651</v>
       </c>
       <c r="D18">
-        <v>1.030392741154473</v>
+        <v>1.048295056843675</v>
       </c>
       <c r="E18">
-        <v>0.9972484692896929</v>
+        <v>1.030803434473188</v>
       </c>
       <c r="F18">
-        <v>1.028290121692909</v>
+        <v>1.054535382613768</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045185388098735</v>
+        <v>1.041173016724435</v>
       </c>
       <c r="J18">
-        <v>1.015917688087881</v>
+        <v>1.03728327036274</v>
       </c>
       <c r="K18">
-        <v>1.043706697613734</v>
+        <v>1.051577253958173</v>
       </c>
       <c r="L18">
-        <v>1.011114867365762</v>
+        <v>1.034145338709759</v>
       </c>
       <c r="M18">
-        <v>1.041637766945922</v>
+        <v>1.057796804745487</v>
       </c>
       <c r="N18">
-        <v>1.008816247856171</v>
+        <v>1.016333335416473</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9888173115394585</v>
+        <v>1.031227063511599</v>
       </c>
       <c r="D19">
-        <v>1.030643096917974</v>
+        <v>1.048345365080105</v>
       </c>
       <c r="E19">
-        <v>0.9975732812392227</v>
+        <v>1.030870407216484</v>
       </c>
       <c r="F19">
-        <v>1.028599614873093</v>
+        <v>1.054599365980936</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045302081081578</v>
+        <v>1.041191551519473</v>
       </c>
       <c r="J19">
-        <v>1.016172405944579</v>
+        <v>1.037334458868177</v>
       </c>
       <c r="K19">
-        <v>1.043891230187249</v>
+        <v>1.051613279032031</v>
       </c>
       <c r="L19">
-        <v>1.011369265763717</v>
+        <v>1.034197691607391</v>
       </c>
       <c r="M19">
-        <v>1.04188029242023</v>
+        <v>1.057846556810048</v>
       </c>
       <c r="N19">
-        <v>1.008903945375467</v>
+        <v>1.016350713349381</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9869871469191078</v>
+        <v>1.030874704376008</v>
       </c>
       <c r="D20">
-        <v>1.029520122405351</v>
+        <v>1.048120406937865</v>
       </c>
       <c r="E20">
-        <v>0.9961160688173226</v>
+        <v>1.030570946094623</v>
       </c>
       <c r="F20">
-        <v>1.027211380730931</v>
+        <v>1.054313275624424</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044777821822584</v>
+        <v>1.041108585688465</v>
       </c>
       <c r="J20">
-        <v>1.01502907510644</v>
+        <v>1.037105518748471</v>
       </c>
       <c r="K20">
-        <v>1.04306302437269</v>
+        <v>1.051452143427395</v>
       </c>
       <c r="L20">
-        <v>1.010227558011946</v>
+        <v>1.033963563067727</v>
       </c>
       <c r="M20">
-        <v>1.040792051168316</v>
+        <v>1.057624060208055</v>
       </c>
       <c r="N20">
-        <v>1.00851028013954</v>
+        <v>1.016272982018901</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9809188167695234</v>
+        <v>1.029729720374079</v>
       </c>
       <c r="D21">
-        <v>1.025809286351732</v>
+        <v>1.047389616542254</v>
       </c>
       <c r="E21">
-        <v>0.991295633083102</v>
+        <v>1.029598369222479</v>
       </c>
       <c r="F21">
-        <v>1.022623890979803</v>
+        <v>1.05338419826275</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043030639639135</v>
+        <v>1.04083756094772</v>
       </c>
       <c r="J21">
-        <v>1.011236559303387</v>
+        <v>1.036360985268085</v>
       </c>
       <c r="K21">
-        <v>1.040317653643598</v>
+        <v>1.050927876429243</v>
       </c>
       <c r="L21">
-        <v>1.006443810364626</v>
+        <v>1.033202495733959</v>
       </c>
       <c r="M21">
-        <v>1.037188959702801</v>
+        <v>1.056900818413613</v>
       </c>
       <c r="N21">
-        <v>1.007204058075273</v>
+        <v>1.016020040798017</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.977007862068199</v>
+        <v>1.029010261919649</v>
       </c>
       <c r="D22">
-        <v>1.023428204849175</v>
+        <v>1.046930584383569</v>
       </c>
       <c r="E22">
-        <v>0.9881980596707686</v>
+        <v>1.028987643131533</v>
       </c>
       <c r="F22">
-        <v>1.019680025745324</v>
+        <v>1.052800847673536</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041898108497866</v>
+        <v>1.040666166956233</v>
       </c>
       <c r="J22">
-        <v>1.008791456759623</v>
+        <v>1.035892696767316</v>
       </c>
       <c r="K22">
-        <v>1.038549406098269</v>
+        <v>1.050597947846197</v>
       </c>
       <c r="L22">
-        <v>1.004006997718132</v>
+        <v>1.032724068340117</v>
       </c>
       <c r="M22">
-        <v>1.034871445449591</v>
+        <v>1.056446182702009</v>
       </c>
       <c r="N22">
-        <v>1.006361644716586</v>
+        <v>1.015860832563124</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9790905190762895</v>
+        <v>1.029391618781963</v>
       </c>
       <c r="D23">
-        <v>1.024695137709546</v>
+        <v>1.047173883362605</v>
       </c>
       <c r="E23">
-        <v>0.9898466882698659</v>
+        <v>1.029311327129977</v>
       </c>
       <c r="F23">
-        <v>1.021246444368135</v>
+        <v>1.053110016793517</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042501790716247</v>
+        <v>1.04075711983065</v>
       </c>
       <c r="J23">
-        <v>1.010093582107429</v>
+        <v>1.036140961335706</v>
       </c>
       <c r="K23">
-        <v>1.039490891495252</v>
+        <v>1.05077287743865</v>
       </c>
       <c r="L23">
-        <v>1.005304458382002</v>
+        <v>1.032977683377542</v>
       </c>
       <c r="M23">
-        <v>1.036105090044022</v>
+        <v>1.056687184286846</v>
       </c>
       <c r="N23">
-        <v>1.006810289587061</v>
+        <v>1.015945248255381</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9870873343405588</v>
+        <v>1.030893907591854</v>
       </c>
       <c r="D24">
-        <v>1.029581551374271</v>
+        <v>1.048132666166086</v>
       </c>
       <c r="E24">
-        <v>0.9961957990055168</v>
+        <v>1.030587264484711</v>
       </c>
       <c r="F24">
-        <v>1.027287319892938</v>
+        <v>1.054328865134426</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044806554881862</v>
+        <v>1.041113112636324</v>
       </c>
       <c r="J24">
-        <v>1.015091670146979</v>
+        <v>1.03711799801021</v>
       </c>
       <c r="K24">
-        <v>1.043108360829587</v>
+        <v>1.051460927654893</v>
       </c>
       <c r="L24">
-        <v>1.010290051663771</v>
+        <v>1.033976323865395</v>
       </c>
       <c r="M24">
-        <v>1.040851606016504</v>
+        <v>1.057636186978341</v>
       </c>
       <c r="N24">
-        <v>1.008531834121587</v>
+        <v>1.016277219638785</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9959820396503098</v>
+        <v>1.032639127362462</v>
       </c>
       <c r="D25">
-        <v>1.035055878707941</v>
+        <v>1.049247167050134</v>
       </c>
       <c r="E25">
-        <v>1.003293317947719</v>
+        <v>1.032071246331747</v>
       </c>
       <c r="F25">
-        <v>1.034055020943556</v>
+        <v>1.055746692087142</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04734081032609</v>
+        <v>1.04152189550335</v>
       </c>
       <c r="J25">
-        <v>1.020645384947048</v>
+        <v>1.038251029931308</v>
       </c>
       <c r="K25">
-        <v>1.047133322919172</v>
+        <v>1.052258026855023</v>
       </c>
       <c r="L25">
-        <v>1.015840723618703</v>
+        <v>1.035135540322992</v>
       </c>
       <c r="M25">
-        <v>1.04614671639632</v>
+        <v>1.058737826389427</v>
       </c>
       <c r="N25">
-        <v>1.010443371445811</v>
+        <v>1.0166616856724</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_148/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_148/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.034032627396843</v>
+        <v>1.002796449493933</v>
       </c>
       <c r="D2">
-        <v>1.050137557194</v>
+        <v>1.039276686849117</v>
       </c>
       <c r="E2">
-        <v>1.03325751490764</v>
+        <v>1.008756698769934</v>
       </c>
       <c r="F2">
-        <v>1.056880251703592</v>
+        <v>1.039274236663459</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041844432251495</v>
+        <v>1.04925673226721</v>
       </c>
       <c r="J2">
-        <v>1.03915409329348</v>
+        <v>1.024893839739242</v>
       </c>
       <c r="K2">
-        <v>1.052892669778873</v>
+        <v>1.050214666439313</v>
       </c>
       <c r="L2">
-        <v>1.036060384185106</v>
+        <v>1.020095372134225</v>
       </c>
       <c r="M2">
-        <v>1.059616750037932</v>
+        <v>1.050212247242486</v>
       </c>
       <c r="N2">
-        <v>1.016967703781468</v>
+        <v>1.011904263693555</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.035045307499152</v>
+        <v>1.007595611202154</v>
       </c>
       <c r="D3">
-        <v>1.050784884138988</v>
+        <v>1.042262689608073</v>
       </c>
       <c r="E3">
-        <v>1.034120371259127</v>
+        <v>1.01261815632056</v>
       </c>
       <c r="F3">
-        <v>1.05770485926882</v>
+        <v>1.042967801753658</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042076579585753</v>
+        <v>1.050590211678275</v>
       </c>
       <c r="J3">
-        <v>1.039809415700384</v>
+        <v>1.027881332310294</v>
       </c>
       <c r="K3">
-        <v>1.05335280874068</v>
+        <v>1.052381927350777</v>
       </c>
       <c r="L3">
-        <v>1.036732039252741</v>
+        <v>1.023092091619561</v>
       </c>
       <c r="M3">
-        <v>1.060255056177638</v>
+        <v>1.053078906149036</v>
       </c>
       <c r="N3">
-        <v>1.017189528715414</v>
+        <v>1.012930621311647</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.035700982882555</v>
+        <v>1.01063631230123</v>
       </c>
       <c r="D4">
-        <v>1.051204120881953</v>
+        <v>1.044160166662072</v>
       </c>
       <c r="E4">
-        <v>1.03467939516345</v>
+        <v>1.015070762697651</v>
       </c>
       <c r="F4">
-        <v>1.058239140814536</v>
+        <v>1.045315651584853</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042225846176121</v>
+        <v>1.051427438802034</v>
       </c>
       <c r="J4">
-        <v>1.040233272995738</v>
+        <v>1.029771798645564</v>
       </c>
       <c r="K4">
-        <v>1.053650234361769</v>
+        <v>1.053753303390682</v>
       </c>
       <c r="L4">
-        <v>1.037166704129531</v>
+        <v>1.024990636982381</v>
       </c>
       <c r="M4">
-        <v>1.060668136078836</v>
+        <v>1.054896270426516</v>
       </c>
       <c r="N4">
-        <v>1.017332890643613</v>
+        <v>1.013579618576951</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.035976724930292</v>
+        <v>1.011899714644037</v>
       </c>
       <c r="D5">
-        <v>1.051380455799094</v>
+        <v>1.044949810216557</v>
       </c>
       <c r="E5">
-        <v>1.034914574917009</v>
+        <v>1.016091209819718</v>
       </c>
       <c r="F5">
-        <v>1.058463920115825</v>
+        <v>1.046292923947747</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042288370311837</v>
+        <v>1.051773421516698</v>
       </c>
       <c r="J5">
-        <v>1.040411418757214</v>
+        <v>1.03055667191069</v>
       </c>
       <c r="K5">
-        <v>1.053775195640299</v>
+        <v>1.054322612027047</v>
       </c>
       <c r="L5">
-        <v>1.037349450605512</v>
+        <v>1.025779400477586</v>
       </c>
       <c r="M5">
-        <v>1.060841806381314</v>
+        <v>1.055651565463948</v>
       </c>
       <c r="N5">
-        <v>1.01739311808976</v>
+        <v>1.013848945279701</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.03602302885489</v>
+        <v>1.012110987398878</v>
       </c>
       <c r="D6">
-        <v>1.051410068312346</v>
+        <v>1.045081929314172</v>
       </c>
       <c r="E6">
-        <v>1.034954072342889</v>
+        <v>1.016261935024877</v>
       </c>
       <c r="F6">
-        <v>1.058501671318447</v>
+        <v>1.046456448844452</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04229885503116</v>
+        <v>1.051831166549674</v>
       </c>
       <c r="J6">
-        <v>1.040441327622336</v>
+        <v>1.030687885559972</v>
       </c>
       <c r="K6">
-        <v>1.053796172675726</v>
+        <v>1.054417783840521</v>
       </c>
       <c r="L6">
-        <v>1.037380135303413</v>
+        <v>1.025911295964289</v>
       </c>
       <c r="M6">
-        <v>1.060870967029142</v>
+        <v>1.055777878687413</v>
       </c>
       <c r="N6">
-        <v>1.017403228075589</v>
+        <v>1.013893963556918</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.03570466698425</v>
+        <v>1.010653251784609</v>
       </c>
       <c r="D7">
-        <v>1.051206476734663</v>
+        <v>1.044170749256884</v>
       </c>
       <c r="E7">
-        <v>1.034682536995444</v>
+        <v>1.01508443922566</v>
       </c>
       <c r="F7">
-        <v>1.058242143670932</v>
+        <v>1.045328747893065</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042226682521406</v>
+        <v>1.051432085177739</v>
       </c>
       <c r="J7">
-        <v>1.040235653561306</v>
+        <v>1.029782324552802</v>
       </c>
       <c r="K7">
-        <v>1.053651904402183</v>
+        <v>1.053760938622834</v>
       </c>
       <c r="L7">
-        <v>1.037169145945377</v>
+        <v>1.025001212944783</v>
       </c>
       <c r="M7">
-        <v>1.060670456626203</v>
+        <v>1.054906396655141</v>
       </c>
       <c r="N7">
-        <v>1.017333695570792</v>
+        <v>1.013583230991661</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.034374783490435</v>
+        <v>1.00443209675472</v>
       </c>
       <c r="D8">
-        <v>1.050356246255315</v>
+        <v>1.04029314860885</v>
       </c>
       <c r="E8">
-        <v>1.033548976073644</v>
+        <v>1.010071463609759</v>
       </c>
       <c r="F8">
-        <v>1.057158784742038</v>
+        <v>1.04053141787675</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04192308355765</v>
+        <v>1.049712784062736</v>
       </c>
       <c r="J8">
-        <v>1.039375599428758</v>
+        <v>1.025912509855201</v>
       </c>
       <c r="K8">
-        <v>1.053048240512098</v>
+        <v>1.050953642242165</v>
       </c>
       <c r="L8">
-        <v>1.036287360436794</v>
+        <v>1.021116717078519</v>
       </c>
       <c r="M8">
-        <v>1.059832456853816</v>
+        <v>1.051188988530113</v>
       </c>
       <c r="N8">
-        <v>1.017042706305115</v>
+        <v>1.012254325268536</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.032034472955504</v>
+        <v>0.9929468037753892</v>
       </c>
       <c r="D9">
-        <v>1.048860953340693</v>
+        <v>1.033183279032811</v>
       </c>
       <c r="E9">
-        <v>1.031556889445887</v>
+        <v>1.000867106265892</v>
       </c>
       <c r="F9">
-        <v>1.055255236534913</v>
+        <v>1.031739887477613</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041380864028673</v>
+        <v>1.046479923533343</v>
       </c>
       <c r="J9">
-        <v>1.03785872653807</v>
+        <v>1.018751110909285</v>
       </c>
       <c r="K9">
-        <v>1.051982140008962</v>
+        <v>1.045759982363014</v>
       </c>
       <c r="L9">
-        <v>1.034734029671576</v>
+        <v>1.013946130923861</v>
       </c>
       <c r="M9">
-        <v>1.058356254685054</v>
+        <v>1.044338172403453</v>
       </c>
       <c r="N9">
-        <v>1.016528631134032</v>
+        <v>1.009791580615595</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.030476388280104</v>
+        <v>0.9848973511941578</v>
       </c>
       <c r="D10">
-        <v>1.047866144083286</v>
+        <v>1.028239986569133</v>
       </c>
       <c r="E10">
-        <v>1.030232517674713</v>
+        <v>0.9944540667377211</v>
       </c>
       <c r="F10">
-        <v>1.053989970696078</v>
+        <v>1.02562885636119</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041014547856889</v>
+        <v>1.044177618292605</v>
       </c>
       <c r="J10">
-        <v>1.036846613771114</v>
+        <v>1.013723258137027</v>
       </c>
       <c r="K10">
-        <v>1.051269875246339</v>
+        <v>1.042117416187748</v>
       </c>
       <c r="L10">
-        <v>1.033698850141701</v>
+        <v>1.008924181938297</v>
       </c>
       <c r="M10">
-        <v>1.057372501026573</v>
+        <v>1.03955029485068</v>
       </c>
       <c r="N10">
-        <v>1.016185050073697</v>
+        <v>1.008060595025143</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.029802229183667</v>
+        <v>0.9813087173526799</v>
       </c>
       <c r="D11">
-        <v>1.04743588607127</v>
+        <v>1.026047122449434</v>
       </c>
       <c r="E11">
-        <v>1.029659936709129</v>
+        <v>0.9916048352813558</v>
       </c>
       <c r="F11">
-        <v>1.053443008630063</v>
+        <v>1.022917925720046</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04085478813083</v>
+        <v>1.043143282249203</v>
       </c>
       <c r="J11">
-        <v>1.036408161262942</v>
+        <v>1.011480292284841</v>
       </c>
       <c r="K11">
-        <v>1.050961106263925</v>
+        <v>1.040493995835706</v>
       </c>
       <c r="L11">
-        <v>1.033250704170541</v>
+        <v>1.006686827931617</v>
       </c>
       <c r="M11">
-        <v>1.056946630123111</v>
+        <v>1.037420209529516</v>
       </c>
       <c r="N11">
-        <v>1.016036074738601</v>
+        <v>1.007288021274207</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.029551892226153</v>
+        <v>0.9799593117400971</v>
       </c>
       <c r="D12">
-        <v>1.047276145835595</v>
+        <v>1.025224346243356</v>
       </c>
       <c r="E12">
-        <v>1.029447387924055</v>
+        <v>0.9905350208915129</v>
       </c>
       <c r="F12">
-        <v>1.053239980230095</v>
+        <v>1.021900724028489</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040795275105305</v>
+        <v>1.042753227922635</v>
       </c>
       <c r="J12">
-        <v>1.036245270912303</v>
+        <v>1.01063673135659</v>
       </c>
       <c r="K12">
-        <v>1.050846363585916</v>
+        <v>1.03988373430362</v>
       </c>
       <c r="L12">
-        <v>1.03308425757935</v>
+        <v>1.005845829618577</v>
       </c>
       <c r="M12">
-        <v>1.056788459045907</v>
+        <v>1.036620034206378</v>
       </c>
       <c r="N12">
-        <v>1.015980708556679</v>
+        <v>1.006997415820478</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.029605586919888</v>
+        <v>0.9802495228561444</v>
       </c>
       <c r="D13">
-        <v>1.047310407161637</v>
+        <v>1.025401214167202</v>
       </c>
       <c r="E13">
-        <v>1.029492974313404</v>
+        <v>0.9907650296885704</v>
       </c>
       <c r="F13">
-        <v>1.053283524257553</v>
+        <v>1.022119389154734</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040808048588413</v>
+        <v>1.042837164824061</v>
       </c>
       <c r="J13">
-        <v>1.03628021277327</v>
+        <v>1.010818158614782</v>
       </c>
       <c r="K13">
-        <v>1.050870978622787</v>
+        <v>1.040014970894811</v>
       </c>
       <c r="L13">
-        <v>1.033119960258035</v>
+        <v>1.006026685225951</v>
       </c>
       <c r="M13">
-        <v>1.056822386520677</v>
+        <v>1.036792087324196</v>
       </c>
       <c r="N13">
-        <v>1.01599258614819</v>
+        <v>1.007059919215085</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.029781534705382</v>
+        <v>0.9811975157856557</v>
       </c>
       <c r="D14">
-        <v>1.047422680319369</v>
+        <v>1.025979282063507</v>
       </c>
       <c r="E14">
-        <v>1.029642364635845</v>
+        <v>0.9915166420475132</v>
       </c>
       <c r="F14">
-        <v>1.053426223422254</v>
+        <v>1.022834055465658</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040849872254177</v>
+        <v>1.043111161104247</v>
       </c>
       <c r="J14">
-        <v>1.036394697295242</v>
+        <v>1.011410779096706</v>
       </c>
       <c r="K14">
-        <v>1.050951622656018</v>
+        <v>1.040443701243329</v>
       </c>
       <c r="L14">
-        <v>1.033236945337821</v>
+        <v>1.006617516700099</v>
       </c>
       <c r="M14">
-        <v>1.056933555312433</v>
+        <v>1.037354252225952</v>
       </c>
       <c r="N14">
-        <v>1.016031498765164</v>
+        <v>1.007264074990248</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.029889951990959</v>
+        <v>0.9817793998237019</v>
       </c>
       <c r="D15">
-        <v>1.047491865731405</v>
+        <v>1.026334343973352</v>
       </c>
       <c r="E15">
-        <v>1.029734426633507</v>
+        <v>0.9919781945039594</v>
       </c>
       <c r="F15">
-        <v>1.053514163373765</v>
+        <v>1.023273012240858</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040875618530482</v>
+        <v>1.043279196029071</v>
       </c>
       <c r="J15">
-        <v>1.036465231088707</v>
+        <v>1.011774514497528</v>
       </c>
       <c r="K15">
-        <v>1.051001303228668</v>
+        <v>1.040706885547485</v>
       </c>
       <c r="L15">
-        <v>1.033309025685866</v>
+        <v>1.006980213789824</v>
       </c>
       <c r="M15">
-        <v>1.057002052274211</v>
+        <v>1.037699419402233</v>
       </c>
       <c r="N15">
-        <v>1.016055470132235</v>
+        <v>1.007389374695171</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.030521140602222</v>
+        <v>0.9851332657931595</v>
       </c>
       <c r="D16">
-        <v>1.047894709571893</v>
+        <v>1.028384384297791</v>
       </c>
       <c r="E16">
-        <v>1.0302705366257</v>
+        <v>0.9946415852263126</v>
       </c>
       <c r="F16">
-        <v>1.054026289990838</v>
+        <v>1.025807364115249</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041025126555803</v>
+        <v>1.044245455758818</v>
       </c>
       <c r="J16">
-        <v>1.036875708239023</v>
+        <v>1.01387068442935</v>
       </c>
       <c r="K16">
-        <v>1.051290359861411</v>
+        <v>1.042224158195391</v>
       </c>
       <c r="L16">
-        <v>1.03372859414678</v>
+        <v>1.009071301756305</v>
       </c>
       <c r="M16">
-        <v>1.057400766902552</v>
+        <v>1.03969042771325</v>
       </c>
       <c r="N16">
-        <v>1.016194932836663</v>
+        <v>1.008111368023535</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.030917203147376</v>
+        <v>0.987208803200747</v>
       </c>
       <c r="D17">
-        <v>1.048147538039735</v>
+        <v>1.029656035902982</v>
       </c>
       <c r="E17">
-        <v>1.030607060737095</v>
+        <v>0.9962924715407546</v>
       </c>
       <c r="F17">
-        <v>1.054347777206308</v>
+        <v>1.027379398468603</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041118603476365</v>
+        <v>1.044841386118912</v>
       </c>
       <c r="J17">
-        <v>1.037133136341855</v>
+        <v>1.015167560424012</v>
       </c>
       <c r="K17">
-        <v>1.051471583477286</v>
+        <v>1.043163327761504</v>
       </c>
       <c r="L17">
-        <v>1.033991803919686</v>
+        <v>1.010365820950794</v>
       </c>
       <c r="M17">
-        <v>1.057650897904951</v>
+        <v>1.040923814114165</v>
       </c>
       <c r="N17">
-        <v>1.01628236011829</v>
+        <v>1.00855796594269</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.03114826812651</v>
+        <v>0.9884095410867756</v>
       </c>
       <c r="D18">
-        <v>1.048295056843675</v>
+        <v>1.030392741154474</v>
       </c>
       <c r="E18">
-        <v>1.030803434473188</v>
+        <v>0.9972484692896931</v>
       </c>
       <c r="F18">
-        <v>1.054535382613768</v>
+        <v>1.02829012169291</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041173016724435</v>
+        <v>1.045185388098736</v>
       </c>
       <c r="J18">
-        <v>1.03728327036274</v>
+        <v>1.015917688087881</v>
       </c>
       <c r="K18">
-        <v>1.051577253958173</v>
+        <v>1.043706697613734</v>
       </c>
       <c r="L18">
-        <v>1.034145338709759</v>
+        <v>1.011114867365762</v>
       </c>
       <c r="M18">
-        <v>1.057796804745487</v>
+        <v>1.041637766945923</v>
       </c>
       <c r="N18">
-        <v>1.016333335416473</v>
+        <v>1.008816247856171</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.031227063511599</v>
+        <v>0.9888173115394583</v>
       </c>
       <c r="D19">
-        <v>1.048345365080105</v>
+        <v>1.030643096917975</v>
       </c>
       <c r="E19">
-        <v>1.030870407216484</v>
+        <v>0.9975732812392222</v>
       </c>
       <c r="F19">
-        <v>1.054599365980936</v>
+        <v>1.028599614873093</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041191551519473</v>
+        <v>1.045302081081578</v>
       </c>
       <c r="J19">
-        <v>1.037334458868177</v>
+        <v>1.016172405944579</v>
       </c>
       <c r="K19">
-        <v>1.051613279032031</v>
+        <v>1.043891230187249</v>
       </c>
       <c r="L19">
-        <v>1.034197691607391</v>
+        <v>1.011369265763716</v>
       </c>
       <c r="M19">
-        <v>1.057846556810048</v>
+        <v>1.04188029242023</v>
       </c>
       <c r="N19">
-        <v>1.016350713349381</v>
+        <v>1.008903945375467</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.030874704376008</v>
+        <v>0.9869871469191084</v>
       </c>
       <c r="D20">
-        <v>1.048120406937865</v>
+        <v>1.029520122405351</v>
       </c>
       <c r="E20">
-        <v>1.030570946094623</v>
+        <v>0.9961160688173231</v>
       </c>
       <c r="F20">
-        <v>1.054313275624424</v>
+        <v>1.027211380730931</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041108585688465</v>
+        <v>1.044777821822584</v>
       </c>
       <c r="J20">
-        <v>1.037105518748471</v>
+        <v>1.015029075106441</v>
       </c>
       <c r="K20">
-        <v>1.051452143427395</v>
+        <v>1.04306302437269</v>
       </c>
       <c r="L20">
-        <v>1.033963563067727</v>
+        <v>1.010227558011947</v>
       </c>
       <c r="M20">
-        <v>1.057624060208055</v>
+        <v>1.040792051168316</v>
       </c>
       <c r="N20">
-        <v>1.016272982018901</v>
+        <v>1.00851028013954</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.029729720374079</v>
+        <v>0.9809188167695233</v>
       </c>
       <c r="D21">
-        <v>1.047389616542254</v>
+        <v>1.025809286351732</v>
       </c>
       <c r="E21">
-        <v>1.029598369222479</v>
+        <v>0.9912956330831018</v>
       </c>
       <c r="F21">
-        <v>1.05338419826275</v>
+        <v>1.022623890979803</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04083756094772</v>
+        <v>1.043030639639135</v>
       </c>
       <c r="J21">
-        <v>1.036360985268085</v>
+        <v>1.011236559303387</v>
       </c>
       <c r="K21">
-        <v>1.050927876429243</v>
+        <v>1.040317653643598</v>
       </c>
       <c r="L21">
-        <v>1.033202495733959</v>
+        <v>1.006443810364626</v>
       </c>
       <c r="M21">
-        <v>1.056900818413613</v>
+        <v>1.037188959702801</v>
       </c>
       <c r="N21">
-        <v>1.016020040798017</v>
+        <v>1.007204058075273</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.029010261919649</v>
+        <v>0.9770078620681983</v>
       </c>
       <c r="D22">
-        <v>1.046930584383569</v>
+        <v>1.023428204849174</v>
       </c>
       <c r="E22">
-        <v>1.028987643131533</v>
+        <v>0.9881980596707685</v>
       </c>
       <c r="F22">
-        <v>1.052800847673536</v>
+        <v>1.019680025745324</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040666166956233</v>
+        <v>1.041898108497865</v>
       </c>
       <c r="J22">
-        <v>1.035892696767316</v>
+        <v>1.008791456759622</v>
       </c>
       <c r="K22">
-        <v>1.050597947846197</v>
+        <v>1.038549406098269</v>
       </c>
       <c r="L22">
-        <v>1.032724068340117</v>
+        <v>1.004006997718132</v>
       </c>
       <c r="M22">
-        <v>1.056446182702009</v>
+        <v>1.034871445449591</v>
       </c>
       <c r="N22">
-        <v>1.015860832563124</v>
+        <v>1.006361644716586</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.029391618781963</v>
+        <v>0.97909051907629</v>
       </c>
       <c r="D23">
-        <v>1.047173883362605</v>
+        <v>1.024695137709547</v>
       </c>
       <c r="E23">
-        <v>1.029311327129977</v>
+        <v>0.989846688269866</v>
       </c>
       <c r="F23">
-        <v>1.053110016793517</v>
+        <v>1.021246444368135</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04075711983065</v>
+        <v>1.042501790716247</v>
       </c>
       <c r="J23">
-        <v>1.036140961335706</v>
+        <v>1.010093582107429</v>
       </c>
       <c r="K23">
-        <v>1.05077287743865</v>
+        <v>1.039490891495252</v>
       </c>
       <c r="L23">
-        <v>1.032977683377542</v>
+        <v>1.005304458382002</v>
       </c>
       <c r="M23">
-        <v>1.056687184286846</v>
+        <v>1.036105090044023</v>
       </c>
       <c r="N23">
-        <v>1.015945248255381</v>
+        <v>1.006810289587061</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.030893907591854</v>
+        <v>0.987087334340559</v>
       </c>
       <c r="D24">
-        <v>1.048132666166086</v>
+        <v>1.029581551374271</v>
       </c>
       <c r="E24">
-        <v>1.030587264484711</v>
+        <v>0.9961957990055169</v>
       </c>
       <c r="F24">
-        <v>1.054328865134426</v>
+        <v>1.027287319892938</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041113112636324</v>
+        <v>1.044806554881862</v>
       </c>
       <c r="J24">
-        <v>1.03711799801021</v>
+        <v>1.015091670146979</v>
       </c>
       <c r="K24">
-        <v>1.051460927654893</v>
+        <v>1.043108360829587</v>
       </c>
       <c r="L24">
-        <v>1.033976323865395</v>
+        <v>1.010290051663772</v>
       </c>
       <c r="M24">
-        <v>1.057636186978341</v>
+        <v>1.040851606016504</v>
       </c>
       <c r="N24">
-        <v>1.016277219638785</v>
+        <v>1.008531834121587</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.032639127362462</v>
+        <v>0.9959820396503098</v>
       </c>
       <c r="D25">
-        <v>1.049247167050134</v>
+        <v>1.035055878707941</v>
       </c>
       <c r="E25">
-        <v>1.032071246331747</v>
+        <v>1.003293317947719</v>
       </c>
       <c r="F25">
-        <v>1.055746692087142</v>
+        <v>1.034055020943556</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04152189550335</v>
+        <v>1.04734081032609</v>
       </c>
       <c r="J25">
-        <v>1.038251029931308</v>
+        <v>1.020645384947048</v>
       </c>
       <c r="K25">
-        <v>1.052258026855023</v>
+        <v>1.047133322919172</v>
       </c>
       <c r="L25">
-        <v>1.035135540322992</v>
+        <v>1.015840723618703</v>
       </c>
       <c r="M25">
-        <v>1.058737826389427</v>
+        <v>1.04614671639632</v>
       </c>
       <c r="N25">
-        <v>1.0166616856724</v>
+        <v>1.010443371445811</v>
       </c>
     </row>
   </sheetData>
